--- a/main_center/utils/download_template/api_template_02.xlsx
+++ b/main_center/utils/download_template/api_template_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\graduation\main_center\utils\download_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/PycharmProjects/graduation/main_center/utils/download_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CD655AC-7FC1-4828-A465-6C676F53FD45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861B6357-57AB-E848-9FFC-94816F1F42FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3096" yWindow="2076" windowWidth="19200" windowHeight="9816" xr2:uid="{903356C9-F5F4-B445-92C8-5AAA8B251838}"/>
+    <workbookView xWindow="3100" yWindow="2080" windowWidth="19200" windowHeight="9820" xr2:uid="{903356C9-F5F4-B445-92C8-5AAA8B251838}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>用例名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -412,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B63A74-F20C-4E4A-9850-5002BC11951B}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -438,6 +442,9 @@
       </c>
       <c r="F1" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
